--- a/biology/Zoologie/Conus_circumactus/Conus_circumactus.xlsx
+++ b/biology/Zoologie/Conus_circumactus/Conus_circumactus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus circumactus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille d'une coquille adulte varie entre 35 mm et 75 mm. La coquille lisse est plutôt mince. La spire est bas-conique et contient des stries tournantes, généralement maculées de marron. Le verticille est strié en dessous. La couleur de la coquille est jaunâtre ou châtain clair, avec de grandes taches blanches formant une bande à l'épaule et une autre au milieu, encerclées par d'étroites lignes châtain, qui sont souvent brisées en petits points . La couleur de la base et de l'ouverture est généralement violacée. Chez Conus cinctus, Swainson 1822, les étroites lignes châtaignes sont continues, les taches blanches et l'intérieur de l'ouverture sont plus ou moins suffusés de couleur rose[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille d'une coquille adulte varie entre 35 mm et 75 mm. La coquille lisse est plutôt mince. La spire est bas-conique et contient des stries tournantes, généralement maculées de marron. Le verticille est strié en dessous. La couleur de la coquille est jaunâtre ou châtain clair, avec de grandes taches blanches formant une bande à l'épaule et une autre au milieu, encerclées par d'étroites lignes châtain, qui sont souvent brisées en petits points . La couleur de la base et de l'ouverture est généralement violacée. Chez Conus cinctus, Swainson 1822, les étroites lignes châtaignes sont continues, les taches blanches et l'intérieur de l'ouverture sont plus ou moins suffusés de couleur rose. 
 </t>
         </is>
       </c>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans l'Indo-Pacifique tropical et au large de l'Australie (Queensland).
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce a une large gamme de profondeur et est présente dans l'Indo-Pacifique jusqu'aux îles Hawaï, de la Corne de l'Afrique au Mozambique et dans l'Indo-Pacifique. Cette espèce occupe plusieurs substrats différents. Il n'y a pas de menaces connues pour cette espèce à l'heure actuelle. Elle a été classée dans la catégorie " préoccupation mineure "[2].
 </t>
         </is>
       </c>
@@ -573,21 +587,132 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce a une large gamme de profondeur et est présente dans l'Indo-Pacifique jusqu'aux îles Hawaï, de la Corne de l'Afrique au Mozambique et dans l'Indo-Pacifique. Cette espèce occupe plusieurs substrats différents. Il n'y a pas de menaces connues pour cette espèce à l'heure actuelle. Elle a été classée dans la catégorie " préoccupation mineure ".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_circumactus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_circumactus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus circumactus a été décrite pour la première fois en 1929 par le malacologiste australien Tom Iredale (1880-1972)[3] dans la publication intitulée « Memoirs of the Queensland Museum »[4],[5].
-Synonymes
-Conus (Strategoconus) circumactus Iredale, 1929 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus circumactus a été décrite pour la première fois en 1929 par le malacologiste australien Tom Iredale (1880-1972) dans la publication intitulée « Memoirs of the Queensland Museum »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_circumactus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_circumactus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Strategoconus) circumactus Iredale, 1929 · appellation alternative
 Conus cinctus Swainson, 1822 · non accepté
 Conus hammatus Bartsch &amp; Rehder, 1943 · non accepté
 Conus pulchellus Swainson, 1822 · non accepté
-Vituliconus circumactus (Iredale, 1929) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus circumactus dans les principales bases sont les suivants :
+Vituliconus circumactus (Iredale, 1929) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_circumactus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_circumactus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus circumactus dans les principales bases sont les suivants :
 AFD : Conus_(Strategoconus)_circumactus - CoL : XX6B - GBIF : 5795885 - iNaturalist : 431910 - IRMNG : 10530814 - NCBI : 591043 - UICN : 192440 - WoRMS : 426454
 </t>
         </is>
